--- a/Code/Results/Cases/Case_1_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.905719066097651</v>
+        <v>1.031045999123778</v>
       </c>
       <c r="D2">
-        <v>1.017361477458722</v>
+        <v>1.044590174670016</v>
       </c>
       <c r="E2">
-        <v>0.9228426041903455</v>
+        <v>1.030425032668677</v>
       </c>
       <c r="F2">
-        <v>0.992163816491743</v>
+        <v>1.049967282177634</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045327230036358</v>
+        <v>1.036903361857703</v>
       </c>
       <c r="J2">
-        <v>0.9311383447710998</v>
+        <v>1.036183887986969</v>
       </c>
       <c r="K2">
-        <v>1.028584124163176</v>
+        <v>1.047360797067923</v>
       </c>
       <c r="L2">
-        <v>0.9354928935877606</v>
+        <v>1.033236082118503</v>
       </c>
       <c r="M2">
-        <v>1.003733412223894</v>
+        <v>1.052722868187691</v>
       </c>
       <c r="N2">
-        <v>0.9324606680237357</v>
+        <v>1.037655387959864</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9249280149622757</v>
+        <v>1.033948427943214</v>
       </c>
       <c r="D3">
-        <v>1.024233042316908</v>
+        <v>1.04563755085187</v>
       </c>
       <c r="E3">
-        <v>0.9393435603331054</v>
+        <v>1.032960537080903</v>
       </c>
       <c r="F3">
-        <v>1.002979798855278</v>
+        <v>1.051647025989925</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048320429891052</v>
+        <v>1.037221769682328</v>
       </c>
       <c r="J3">
-        <v>0.9476977481064903</v>
+        <v>1.038718095448415</v>
       </c>
       <c r="K3">
-        <v>1.03456496875436</v>
+        <v>1.048218826217017</v>
       </c>
       <c r="L3">
-        <v>0.9508162556637447</v>
+        <v>1.035575306365899</v>
       </c>
       <c r="M3">
-        <v>1.013574694053161</v>
+        <v>1.054212728220169</v>
       </c>
       <c r="N3">
-        <v>0.9490435876112524</v>
+        <v>1.040193194286583</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9364369229323765</v>
+        <v>1.035814127633758</v>
       </c>
       <c r="D4">
-        <v>1.0284082509841</v>
+        <v>1.046309554273485</v>
       </c>
       <c r="E4">
-        <v>0.9492442677393386</v>
+        <v>1.034590023710654</v>
       </c>
       <c r="F4">
-        <v>1.009523643048809</v>
+        <v>1.052725461778131</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050112911755047</v>
+        <v>1.037423449315544</v>
       </c>
       <c r="J4">
-        <v>0.9576192507466434</v>
+        <v>1.040345875460647</v>
       </c>
       <c r="K4">
-        <v>1.038175489618378</v>
+        <v>1.048767723731452</v>
       </c>
       <c r="L4">
-        <v>0.9599964942076</v>
+        <v>1.037077559331293</v>
       </c>
       <c r="M4">
-        <v>1.019508469074738</v>
+        <v>1.055167852552223</v>
       </c>
       <c r="N4">
-        <v>0.9589791799231668</v>
+        <v>1.041823285933141</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9410863287912414</v>
+        <v>1.036595589328364</v>
       </c>
       <c r="D5">
-        <v>1.030106245479579</v>
+        <v>1.04659071382624</v>
       </c>
       <c r="E5">
-        <v>0.9532466979506163</v>
+        <v>1.035272460125481</v>
       </c>
       <c r="F5">
-        <v>1.012179521528461</v>
+        <v>1.05317684430909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050835728442983</v>
+        <v>1.037507201735159</v>
       </c>
       <c r="J5">
-        <v>0.9616268623447229</v>
+        <v>1.041027388233157</v>
       </c>
       <c r="K5">
-        <v>1.039638559203141</v>
+        <v>1.04899698873607</v>
       </c>
       <c r="L5">
-        <v>0.9637044451881634</v>
+        <v>1.037706448858958</v>
       </c>
       <c r="M5">
-        <v>1.021912168840061</v>
+        <v>1.055567286990513</v>
       </c>
       <c r="N5">
-        <v>0.9629924827893953</v>
+        <v>1.042505766531959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9418566770181103</v>
+        <v>1.036726633745503</v>
       </c>
       <c r="D6">
-        <v>1.030388178138889</v>
+        <v>1.046637843076433</v>
       </c>
       <c r="E6">
-        <v>0.9539099924468303</v>
+        <v>1.035386893778817</v>
       </c>
       <c r="F6">
-        <v>1.012620215205518</v>
+        <v>1.053252517652323</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050955384164463</v>
+        <v>1.037521203749211</v>
       </c>
       <c r="J6">
-        <v>0.9622908303637505</v>
+        <v>1.041141654754523</v>
       </c>
       <c r="K6">
-        <v>1.039881183479236</v>
+        <v>1.049035396387886</v>
       </c>
       <c r="L6">
-        <v>0.9643187505288611</v>
+        <v>1.037811888262569</v>
       </c>
       <c r="M6">
-        <v>1.022310756152016</v>
+        <v>1.055634231641509</v>
       </c>
       <c r="N6">
-        <v>0.963657393719168</v>
+        <v>1.042620195324891</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9364997550967046</v>
+        <v>1.035824580765111</v>
       </c>
       <c r="D7">
-        <v>1.028431155875007</v>
+        <v>1.046313316423787</v>
       </c>
       <c r="E7">
-        <v>0.9492983466705179</v>
+        <v>1.034599152581291</v>
       </c>
       <c r="F7">
-        <v>1.009559489159684</v>
+        <v>1.05273150095234</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050122686488995</v>
+        <v>1.037424572470401</v>
       </c>
       <c r="J7">
-        <v>0.9576734123284085</v>
+        <v>1.040354992797726</v>
       </c>
       <c r="K7">
-        <v>1.03819524610902</v>
+        <v>1.048770793018444</v>
       </c>
       <c r="L7">
-        <v>0.9600466070133196</v>
+        <v>1.037085972937692</v>
       </c>
       <c r="M7">
-        <v>1.019540929439691</v>
+        <v>1.055173198019913</v>
       </c>
       <c r="N7">
-        <v>0.9590334184205905</v>
+        <v>1.041832416217885</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.912423145748122</v>
+        <v>1.032029498825999</v>
       </c>
       <c r="D8">
-        <v>1.019745140550365</v>
+        <v>1.044945335764924</v>
       </c>
       <c r="E8">
-        <v>0.9285979423320043</v>
+        <v>1.031284270771936</v>
       </c>
       <c r="F8">
-        <v>0.9959227260095931</v>
+        <v>1.050536735347097</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046371288104686</v>
+        <v>1.037011875206985</v>
       </c>
       <c r="J8">
-        <v>0.936917321667992</v>
+        <v>1.037042868285639</v>
       </c>
       <c r="K8">
-        <v>1.030664132135674</v>
+        <v>1.047652088355946</v>
       </c>
       <c r="L8">
-        <v>0.9408406065560215</v>
+        <v>1.034029031385951</v>
       </c>
       <c r="M8">
-        <v>1.007158211292235</v>
+        <v>1.053228240153428</v>
       </c>
       <c r="N8">
-        <v>0.9382478517306795</v>
+        <v>1.038515588109084</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8608783306398451</v>
+        <v>1.025243621770316</v>
       </c>
       <c r="D9">
-        <v>1.001870852997271</v>
+        <v>1.042490129318935</v>
       </c>
       <c r="E9">
-        <v>0.8844661141548172</v>
+        <v>1.025354367104152</v>
       </c>
       <c r="F9">
-        <v>0.9675224713314281</v>
+        <v>1.046602748667842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038410408052182</v>
+        <v>1.036250950363943</v>
       </c>
       <c r="J9">
-        <v>0.8925214354951103</v>
+        <v>1.031111111496399</v>
       </c>
       <c r="K9">
-        <v>1.014933649667096</v>
+        <v>1.045631679804133</v>
       </c>
       <c r="L9">
-        <v>0.8997602323228284</v>
+        <v>1.028552067917115</v>
       </c>
       <c r="M9">
-        <v>0.9811654094704036</v>
+        <v>1.049731122466159</v>
       </c>
       <c r="N9">
-        <v>0.8937889183071531</v>
+        <v>1.032575407544822</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8153309765588816</v>
+        <v>1.020648163103027</v>
       </c>
       <c r="D10">
-        <v>0.9870619576504485</v>
+        <v>1.040822087416287</v>
       </c>
       <c r="E10">
-        <v>0.8457491609516742</v>
+        <v>1.021336887638001</v>
       </c>
       <c r="F10">
-        <v>0.9435331499767717</v>
+        <v>1.043932998272698</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031612805214215</v>
+        <v>1.035720474040188</v>
       </c>
       <c r="J10">
-        <v>0.853423981978456</v>
+        <v>1.027087784850466</v>
       </c>
       <c r="K10">
-        <v>1.001668808875344</v>
+        <v>1.044250545250755</v>
       </c>
       <c r="L10">
-        <v>0.8636012145716891</v>
+        <v>1.024835707062346</v>
       </c>
       <c r="M10">
-        <v>0.9590026935157648</v>
+        <v>1.0473504905795</v>
       </c>
       <c r="N10">
-        <v>0.8546359419219643</v>
+        <v>1.02854636731357</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7902631806672308</v>
+        <v>1.018640091294401</v>
       </c>
       <c r="D11">
-        <v>0.9793627728140493</v>
+        <v>1.040092117618291</v>
       </c>
       <c r="E11">
-        <v>0.8245843598613296</v>
+        <v>1.019580995224703</v>
       </c>
       <c r="F11">
-        <v>0.9308479168047066</v>
+        <v>1.042765256370827</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028015183663931</v>
+        <v>1.035485147149451</v>
       </c>
       <c r="J11">
-        <v>0.8319922441276464</v>
+        <v>1.025328243663596</v>
       </c>
       <c r="K11">
-        <v>0.994684661174661</v>
+        <v>1.043644117010873</v>
       </c>
       <c r="L11">
-        <v>0.8437958097125663</v>
+        <v>1.023210053418285</v>
       </c>
       <c r="M11">
-        <v>0.9472034247498549</v>
+        <v>1.046307459861024</v>
       </c>
       <c r="N11">
-        <v>0.8331737685451518</v>
+        <v>1.026784327376392</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7795757239161663</v>
+        <v>1.01789136159147</v>
       </c>
       <c r="D12">
-        <v>0.9761847072970398</v>
+        <v>1.039819793224421</v>
       </c>
       <c r="E12">
-        <v>0.815597137333549</v>
+        <v>1.018926238077988</v>
       </c>
       <c r="F12">
-        <v>0.9255614421311941</v>
+        <v>1.042329696276946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026517959153679</v>
+        <v>1.035396879850566</v>
       </c>
       <c r="J12">
-        <v>0.8228783589123545</v>
+        <v>1.024671961341926</v>
       </c>
       <c r="K12">
-        <v>0.9917828498471183</v>
+        <v>1.043417578401668</v>
       </c>
       <c r="L12">
-        <v>0.8353782039547052</v>
+        <v>1.022603654999204</v>
       </c>
       <c r="M12">
-        <v>0.9422686484466074</v>
+        <v>1.045918153191685</v>
       </c>
       <c r="N12">
-        <v>0.8240469405674771</v>
+        <v>1.026127113058548</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7819477271772589</v>
+        <v>1.018052097031043</v>
       </c>
       <c r="D13">
-        <v>0.9768845291297755</v>
+        <v>1.0398782615855</v>
       </c>
       <c r="E13">
-        <v>0.8175897963478226</v>
+        <v>1.019066802180078</v>
       </c>
       <c r="F13">
-        <v>0.926728246560325</v>
+        <v>1.042423208025924</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026848263731897</v>
+        <v>1.035415852420992</v>
       </c>
       <c r="J13">
-        <v>0.8248998104691362</v>
+        <v>1.024812860319516</v>
       </c>
       <c r="K13">
-        <v>0.9924228268583848</v>
+        <v>1.043466230206722</v>
       </c>
       <c r="L13">
-        <v>0.8372449495547307</v>
+        <v>1.022733846720946</v>
       </c>
       <c r="M13">
-        <v>0.9433587486762099</v>
+        <v>1.046001746551081</v>
       </c>
       <c r="N13">
-        <v>0.8260712628173329</v>
+        <v>1.026268212128848</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7894136289563204</v>
+        <v>1.018578259677867</v>
       </c>
       <c r="D14">
-        <v>0.9791078174450834</v>
+        <v>1.040069631439361</v>
       </c>
       <c r="E14">
-        <v>0.8238691293260163</v>
+        <v>1.019526925162714</v>
       </c>
       <c r="F14">
-        <v>0.9304249611574923</v>
+        <v>1.04272929001625</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027895333294507</v>
+        <v>1.035477868482524</v>
       </c>
       <c r="J14">
-        <v>0.8312672316695559</v>
+        <v>1.025274051007406</v>
       </c>
       <c r="K14">
-        <v>0.9944522880787064</v>
+        <v>1.043625417596701</v>
       </c>
       <c r="L14">
-        <v>0.8431260742249278</v>
+        <v>1.023159981039895</v>
       </c>
       <c r="M14">
-        <v>0.9468089979923278</v>
+        <v>1.046275318241741</v>
       </c>
       <c r="N14">
-        <v>0.8324477264862107</v>
+        <v>1.026730057760414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7938030492298498</v>
+        <v>1.018902065951963</v>
       </c>
       <c r="D15">
-        <v>0.9804293927930003</v>
+        <v>1.040187383459859</v>
       </c>
       <c r="E15">
-        <v>0.8275660505018423</v>
+        <v>1.0198100826768</v>
       </c>
       <c r="F15">
-        <v>0.932615275511723</v>
+        <v>1.042917636106889</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028516088353661</v>
+        <v>1.035515964806616</v>
       </c>
       <c r="J15">
-        <v>0.8350141670388168</v>
+        <v>1.025557843799298</v>
       </c>
       <c r="K15">
-        <v>0.9956560262137581</v>
+        <v>1.04372332730803</v>
       </c>
       <c r="L15">
-        <v>0.8465875312797032</v>
+        <v>1.023422194798715</v>
       </c>
       <c r="M15">
-        <v>0.9488508503086261</v>
+        <v>1.046443624470272</v>
       </c>
       <c r="N15">
-        <v>0.8361999829334757</v>
+        <v>1.027014253570622</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8168454990464774</v>
+        <v>1.020781039540906</v>
       </c>
       <c r="D16">
-        <v>0.9875377973511764</v>
+        <v>1.040870368850718</v>
       </c>
       <c r="E16">
-        <v>0.8470314297143365</v>
+        <v>1.021453069271949</v>
       </c>
       <c r="F16">
-        <v>0.9443119103645402</v>
+        <v>1.044010246448041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031833766342539</v>
+        <v>1.035735972422657</v>
       </c>
       <c r="J16">
-        <v>0.8547210548730593</v>
+        <v>1.027204184935854</v>
       </c>
       <c r="K16">
-        <v>1.002098414721641</v>
+        <v>1.04429061314322</v>
       </c>
       <c r="L16">
-        <v>0.8648002876107658</v>
+        <v>1.024943242443585</v>
       </c>
       <c r="M16">
-        <v>0.9597252025387278</v>
+        <v>1.047419452170451</v>
       </c>
       <c r="N16">
-        <v>0.8559348568088543</v>
+        <v>1.02866293270043</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8296131496810448</v>
+        <v>1.021954720744578</v>
       </c>
       <c r="D17">
-        <v>0.9915959284368548</v>
+        <v>1.041296709677662</v>
       </c>
       <c r="E17">
-        <v>0.8578560556760551</v>
+        <v>1.022479243938723</v>
       </c>
       <c r="F17">
-        <v>0.9509306241052319</v>
+        <v>1.04469244046172</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033711521705775</v>
+        <v>1.035872463187214</v>
       </c>
       <c r="J17">
-        <v>0.8656645827650196</v>
+        <v>1.028232163363054</v>
       </c>
       <c r="K17">
-        <v>1.005752933707822</v>
+        <v>1.044644194192983</v>
       </c>
       <c r="L17">
-        <v>0.8749186179286715</v>
+        <v>1.025892891602855</v>
       </c>
       <c r="M17">
-        <v>0.9658574303863742</v>
+        <v>1.048028264740643</v>
       </c>
       <c r="N17">
-        <v>0.8668939257656617</v>
+        <v>1.029692370974907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8365956368635885</v>
+        <v>1.022637559705874</v>
       </c>
       <c r="D18">
-        <v>0.9938499172033023</v>
+        <v>1.041544646166331</v>
       </c>
       <c r="E18">
-        <v>0.8637867375435777</v>
+        <v>1.023076228151638</v>
       </c>
       <c r="F18">
-        <v>0.9545899294541386</v>
+        <v>1.045089224934647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034749232996764</v>
+        <v>1.035951533764591</v>
       </c>
       <c r="J18">
-        <v>0.8716558480632227</v>
+        <v>1.028830092056421</v>
       </c>
       <c r="K18">
-        <v>1.007775660290083</v>
+        <v>1.044849624387153</v>
       </c>
       <c r="L18">
-        <v>0.8804592316834113</v>
+        <v>1.026445225238629</v>
       </c>
       <c r="M18">
-        <v>0.9692414091446764</v>
+        <v>1.048382200694175</v>
       </c>
       <c r="N18">
-        <v>0.8728936993477958</v>
+        <v>1.030291148795602</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8389073837749874</v>
+        <v>1.02287009660727</v>
       </c>
       <c r="D19">
-        <v>0.9946014442789705</v>
+        <v>1.041629061171077</v>
       </c>
       <c r="E19">
-        <v>0.8657518669113078</v>
+        <v>1.023279521452811</v>
       </c>
       <c r="F19">
-        <v>0.9558074565058884</v>
+        <v>1.045224328321619</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035094381035759</v>
+        <v>1.035978403153523</v>
       </c>
       <c r="J19">
-        <v>0.8736403443999472</v>
+        <v>1.02903368920752</v>
       </c>
       <c r="K19">
-        <v>1.00844897136121</v>
+        <v>1.044919534498612</v>
       </c>
       <c r="L19">
-        <v>0.8822946139197186</v>
+        <v>1.026633291247787</v>
       </c>
       <c r="M19">
-        <v>0.9703663379919482</v>
+        <v>1.048502685915828</v>
       </c>
       <c r="N19">
-        <v>0.8748810138969429</v>
+        <v>1.030495035078008</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8282938531662698</v>
+        <v>1.021828977574055</v>
       </c>
       <c r="D20">
-        <v>0.9911727725424858</v>
+        <v>1.041251044153745</v>
       </c>
       <c r="E20">
-        <v>0.8567363304150634</v>
+        <v>1.022369307756046</v>
       </c>
       <c r="F20">
-        <v>0.9502423253655786</v>
+        <v>1.044619364489193</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033516284576759</v>
+        <v>1.035857875178264</v>
       </c>
       <c r="J20">
-        <v>0.8645330583569694</v>
+        <v>1.028122044800477</v>
       </c>
       <c r="K20">
-        <v>1.005372634529504</v>
+        <v>1.04460634200285</v>
       </c>
       <c r="L20">
-        <v>0.8738722885889076</v>
+        <v>1.02579116735558</v>
       </c>
       <c r="M20">
-        <v>0.9652204168074148</v>
+        <v>1.047963066683151</v>
       </c>
       <c r="N20">
-        <v>0.8657607944631642</v>
+        <v>1.029582096031341</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7872611608696098</v>
+        <v>1.018423397230572</v>
       </c>
       <c r="D21">
-        <v>0.9784636400781574</v>
+        <v>1.040013310594189</v>
       </c>
       <c r="E21">
-        <v>0.8220576178039742</v>
+        <v>1.019391501295162</v>
       </c>
       <c r="F21">
-        <v>0.929355434977951</v>
+        <v>1.042639206818546</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027592312277465</v>
+        <v>1.035459630029366</v>
       </c>
       <c r="J21">
-        <v>0.8294307160527634</v>
+        <v>1.02513831743305</v>
       </c>
       <c r="K21">
-        <v>0.9938648443191038</v>
+        <v>1.043578576523214</v>
       </c>
       <c r="L21">
-        <v>0.8414296641359161</v>
+        <v>1.023034566440561</v>
       </c>
       <c r="M21">
-        <v>0.9458113124616775</v>
+        <v>1.046194810428359</v>
       </c>
       <c r="N21">
-        <v>0.830608602806591</v>
+        <v>1.026594131428814</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7523823252793994</v>
+        <v>1.016265673174338</v>
       </c>
       <c r="D22">
-        <v>0.9683929101670403</v>
+        <v>1.039228252028236</v>
       </c>
       <c r="E22">
-        <v>0.7928397403669667</v>
+        <v>1.017504490037623</v>
       </c>
       <c r="F22">
-        <v>0.9124585754166474</v>
+        <v>1.041383713607479</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022816895372219</v>
+        <v>1.035204276848704</v>
       </c>
       <c r="J22">
-        <v>0.7997620456613224</v>
+        <v>1.023246599647251</v>
       </c>
       <c r="K22">
-        <v>0.9846176348187933</v>
+        <v>1.042924937413424</v>
       </c>
       <c r="L22">
-        <v>0.8140435843352195</v>
+        <v>1.021286535467739</v>
       </c>
       <c r="M22">
-        <v>0.929989468369791</v>
+        <v>1.045072144926918</v>
       </c>
       <c r="N22">
-        <v>0.8008977995001502</v>
+        <v>1.024699727186776</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7721990683330113</v>
+        <v>1.01741112406549</v>
       </c>
       <c r="D23">
-        <v>0.9740287496727994</v>
+        <v>1.039645083852718</v>
       </c>
       <c r="E23">
-        <v>0.8094077012805159</v>
+        <v>1.01850625958157</v>
       </c>
       <c r="F23">
-        <v>0.9219568738337655</v>
+        <v>1.042050284851037</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02549821144854</v>
+        <v>1.035340118378173</v>
       </c>
       <c r="J23">
-        <v>0.8165968574755507</v>
+        <v>1.024250958171845</v>
       </c>
       <c r="K23">
-        <v>0.9898076659467274</v>
+        <v>1.043272157501828</v>
       </c>
       <c r="L23">
-        <v>0.8295784919354715</v>
+        <v>1.022214636944858</v>
       </c>
       <c r="M23">
-        <v>0.938897667879677</v>
+        <v>1.045668339183625</v>
       </c>
       <c r="N23">
-        <v>0.8177565186781345</v>
+        <v>1.025705512015676</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.828891390132955</v>
+        <v>1.021885800899967</v>
       </c>
       <c r="D24">
-        <v>0.9913643207354973</v>
+        <v>1.041271680726666</v>
       </c>
       <c r="E24">
-        <v>0.8572434438295128</v>
+        <v>1.022418988018976</v>
       </c>
       <c r="F24">
-        <v>0.9505539469259987</v>
+        <v>1.044652387858065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033604678125181</v>
+        <v>1.035864468546404</v>
       </c>
       <c r="J24">
-        <v>0.8650455297325231</v>
+        <v>1.028171807805461</v>
       </c>
       <c r="K24">
-        <v>1.005544804983175</v>
+        <v>1.044623448272777</v>
       </c>
       <c r="L24">
-        <v>0.8743461713824583</v>
+        <v>1.025837137043552</v>
       </c>
       <c r="M24">
-        <v>0.9655088392369562</v>
+        <v>1.047992530504655</v>
       </c>
       <c r="N24">
-        <v>0.8662739936068523</v>
+        <v>1.029631929705499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8756537031761158</v>
+        <v>1.027010142794284</v>
       </c>
       <c r="D25">
-        <v>1.006882880529732</v>
+        <v>1.043130273366778</v>
       </c>
       <c r="E25">
-        <v>0.897086606856502</v>
+        <v>1.026898362100104</v>
       </c>
       <c r="F25">
-        <v>0.9755394450259053</v>
+        <v>1.047627901722717</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0406717922405</v>
+        <v>1.03645171530541</v>
       </c>
       <c r="J25">
-        <v>0.9052363662462323</v>
+        <v>1.032656390930536</v>
       </c>
       <c r="K25">
-        <v>1.019375280071323</v>
+        <v>1.046159942489949</v>
       </c>
       <c r="L25">
-        <v>0.9115244790144328</v>
+        <v>1.029979132024453</v>
       </c>
       <c r="M25">
-        <v>0.9885297314770196</v>
+        <v>1.050643717407844</v>
       </c>
       <c r="N25">
-        <v>0.9065219057183644</v>
+        <v>1.034122881453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_253/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_253/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031045999123778</v>
+        <v>0.9057190660976501</v>
       </c>
       <c r="D2">
-        <v>1.044590174670016</v>
+        <v>1.017361477458722</v>
       </c>
       <c r="E2">
-        <v>1.030425032668677</v>
+        <v>0.9228426041903449</v>
       </c>
       <c r="F2">
-        <v>1.049967282177634</v>
+        <v>0.9921638164917427</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036903361857703</v>
+        <v>1.045327230036358</v>
       </c>
       <c r="J2">
-        <v>1.036183887986969</v>
+        <v>0.931138344771099</v>
       </c>
       <c r="K2">
-        <v>1.047360797067923</v>
+        <v>1.028584124163176</v>
       </c>
       <c r="L2">
-        <v>1.033236082118503</v>
+        <v>0.93549289358776</v>
       </c>
       <c r="M2">
-        <v>1.052722868187691</v>
+        <v>1.003733412223894</v>
       </c>
       <c r="N2">
-        <v>1.037655387959864</v>
+        <v>0.9324606680237351</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033948427943214</v>
+        <v>0.9249280149622742</v>
       </c>
       <c r="D3">
-        <v>1.04563755085187</v>
+        <v>1.024233042316907</v>
       </c>
       <c r="E3">
-        <v>1.032960537080903</v>
+        <v>0.9393435603331038</v>
       </c>
       <c r="F3">
-        <v>1.051647025989925</v>
+        <v>1.002979798855277</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037221769682328</v>
+        <v>1.048320429891052</v>
       </c>
       <c r="J3">
-        <v>1.038718095448415</v>
+        <v>0.9476977481064887</v>
       </c>
       <c r="K3">
-        <v>1.048218826217017</v>
+        <v>1.03456496875436</v>
       </c>
       <c r="L3">
-        <v>1.035575306365899</v>
+        <v>0.9508162556637429</v>
       </c>
       <c r="M3">
-        <v>1.054212728220169</v>
+        <v>1.01357469405316</v>
       </c>
       <c r="N3">
-        <v>1.040193194286583</v>
+        <v>0.9490435876112511</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.035814127633758</v>
+        <v>0.9364369229323766</v>
       </c>
       <c r="D4">
-        <v>1.046309554273485</v>
+        <v>1.0284082509841</v>
       </c>
       <c r="E4">
-        <v>1.034590023710654</v>
+        <v>0.9492442677393386</v>
       </c>
       <c r="F4">
-        <v>1.052725461778131</v>
+        <v>1.009523643048809</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037423449315544</v>
+        <v>1.050112911755047</v>
       </c>
       <c r="J4">
-        <v>1.040345875460647</v>
+        <v>0.9576192507466437</v>
       </c>
       <c r="K4">
-        <v>1.048767723731452</v>
+        <v>1.038175489618378</v>
       </c>
       <c r="L4">
-        <v>1.037077559331293</v>
+        <v>0.9599964942076</v>
       </c>
       <c r="M4">
-        <v>1.055167852552223</v>
+        <v>1.019508469074738</v>
       </c>
       <c r="N4">
-        <v>1.041823285933141</v>
+        <v>0.9589791799231671</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036595589328364</v>
+        <v>0.9410863287912395</v>
       </c>
       <c r="D5">
-        <v>1.04659071382624</v>
+        <v>1.030106245479579</v>
       </c>
       <c r="E5">
-        <v>1.035272460125481</v>
+        <v>0.9532466979506147</v>
       </c>
       <c r="F5">
-        <v>1.05317684430909</v>
+        <v>1.01217952152846</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037507201735159</v>
+        <v>1.050835728442983</v>
       </c>
       <c r="J5">
-        <v>1.041027388233157</v>
+        <v>0.9616268623447209</v>
       </c>
       <c r="K5">
-        <v>1.04899698873607</v>
+        <v>1.039638559203141</v>
       </c>
       <c r="L5">
-        <v>1.037706448858958</v>
+        <v>0.9637044451881616</v>
       </c>
       <c r="M5">
-        <v>1.055567286990513</v>
+        <v>1.02191216884006</v>
       </c>
       <c r="N5">
-        <v>1.042505766531959</v>
+        <v>0.9629924827893934</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036726633745503</v>
+        <v>0.9418566770181092</v>
       </c>
       <c r="D6">
-        <v>1.046637843076433</v>
+        <v>1.03038817813889</v>
       </c>
       <c r="E6">
-        <v>1.035386893778817</v>
+        <v>0.9539099924468291</v>
       </c>
       <c r="F6">
-        <v>1.053252517652323</v>
+        <v>1.012620215205518</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037521203749211</v>
+        <v>1.050955384164463</v>
       </c>
       <c r="J6">
-        <v>1.041141654754523</v>
+        <v>0.9622908303637493</v>
       </c>
       <c r="K6">
-        <v>1.049035396387886</v>
+        <v>1.039881183479236</v>
       </c>
       <c r="L6">
-        <v>1.037811888262569</v>
+        <v>0.9643187505288597</v>
       </c>
       <c r="M6">
-        <v>1.055634231641509</v>
+        <v>1.022310756152016</v>
       </c>
       <c r="N6">
-        <v>1.042620195324891</v>
+        <v>0.9636573937191669</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035824580765111</v>
+        <v>0.936499755096703</v>
       </c>
       <c r="D7">
-        <v>1.046313316423787</v>
+        <v>1.028431155875007</v>
       </c>
       <c r="E7">
-        <v>1.034599152581291</v>
+        <v>0.9492983466705168</v>
       </c>
       <c r="F7">
-        <v>1.05273150095234</v>
+        <v>1.009559489159685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037424572470401</v>
+        <v>1.050122686488995</v>
       </c>
       <c r="J7">
-        <v>1.040354992797726</v>
+        <v>0.9576734123284073</v>
       </c>
       <c r="K7">
-        <v>1.048770793018444</v>
+        <v>1.03819524610902</v>
       </c>
       <c r="L7">
-        <v>1.037085972937692</v>
+        <v>0.9600466070133185</v>
       </c>
       <c r="M7">
-        <v>1.055173198019913</v>
+        <v>1.019540929439691</v>
       </c>
       <c r="N7">
-        <v>1.041832416217885</v>
+        <v>0.9590334184205894</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.032029498825999</v>
+        <v>0.9124231457481217</v>
       </c>
       <c r="D8">
-        <v>1.044945335764924</v>
+        <v>1.019745140550364</v>
       </c>
       <c r="E8">
-        <v>1.031284270771936</v>
+        <v>0.9285979423320041</v>
       </c>
       <c r="F8">
-        <v>1.050536735347097</v>
+        <v>0.9959227260095922</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037011875206985</v>
+        <v>1.046371288104685</v>
       </c>
       <c r="J8">
-        <v>1.037042868285639</v>
+        <v>0.9369173216679916</v>
       </c>
       <c r="K8">
-        <v>1.047652088355946</v>
+        <v>1.030664132135674</v>
       </c>
       <c r="L8">
-        <v>1.034029031385951</v>
+        <v>0.9408406065560213</v>
       </c>
       <c r="M8">
-        <v>1.053228240153428</v>
+        <v>1.007158211292233</v>
       </c>
       <c r="N8">
-        <v>1.038515588109084</v>
+        <v>0.9382478517306791</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025243621770316</v>
+        <v>0.8608783306398461</v>
       </c>
       <c r="D9">
-        <v>1.042490129318935</v>
+        <v>1.001870852997272</v>
       </c>
       <c r="E9">
-        <v>1.025354367104152</v>
+        <v>0.8844661141548182</v>
       </c>
       <c r="F9">
-        <v>1.046602748667842</v>
+        <v>0.9675224713314294</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036250950363943</v>
+        <v>1.038410408052183</v>
       </c>
       <c r="J9">
-        <v>1.031111111496399</v>
+        <v>0.8925214354951112</v>
       </c>
       <c r="K9">
-        <v>1.045631679804133</v>
+        <v>1.014933649667097</v>
       </c>
       <c r="L9">
-        <v>1.028552067917115</v>
+        <v>0.8997602323228293</v>
       </c>
       <c r="M9">
-        <v>1.049731122466159</v>
+        <v>0.981165409470405</v>
       </c>
       <c r="N9">
-        <v>1.032575407544822</v>
+        <v>0.8937889183071539</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020648163103027</v>
+        <v>0.8153309765588811</v>
       </c>
       <c r="D10">
-        <v>1.040822087416287</v>
+        <v>0.9870619576504485</v>
       </c>
       <c r="E10">
-        <v>1.021336887638001</v>
+        <v>0.8457491609516739</v>
       </c>
       <c r="F10">
-        <v>1.043932998272698</v>
+        <v>0.9435331499767713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035720474040188</v>
+        <v>1.031612805214215</v>
       </c>
       <c r="J10">
-        <v>1.027087784850466</v>
+        <v>0.8534239819784558</v>
       </c>
       <c r="K10">
-        <v>1.044250545250755</v>
+        <v>1.001668808875343</v>
       </c>
       <c r="L10">
-        <v>1.024835707062346</v>
+        <v>0.863601214571689</v>
       </c>
       <c r="M10">
-        <v>1.0473504905795</v>
+        <v>0.9590026935157645</v>
       </c>
       <c r="N10">
-        <v>1.02854636731357</v>
+        <v>0.8546359419219641</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018640091294401</v>
+        <v>0.7902631806672327</v>
       </c>
       <c r="D11">
-        <v>1.040092117618291</v>
+        <v>0.9793627728140488</v>
       </c>
       <c r="E11">
-        <v>1.019580995224703</v>
+        <v>0.8245843598613313</v>
       </c>
       <c r="F11">
-        <v>1.042765256370827</v>
+        <v>0.9308479168047067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035485147149451</v>
+        <v>1.02801518366393</v>
       </c>
       <c r="J11">
-        <v>1.025328243663596</v>
+        <v>0.8319922441276481</v>
       </c>
       <c r="K11">
-        <v>1.043644117010873</v>
+        <v>0.9946846611746607</v>
       </c>
       <c r="L11">
-        <v>1.023210053418285</v>
+        <v>0.8437958097125681</v>
       </c>
       <c r="M11">
-        <v>1.046307459861024</v>
+        <v>0.947203424749855</v>
       </c>
       <c r="N11">
-        <v>1.026784327376392</v>
+        <v>0.8331737685451537</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01789136159147</v>
+        <v>0.7795757239161658</v>
       </c>
       <c r="D12">
-        <v>1.039819793224421</v>
+        <v>0.9761847072970395</v>
       </c>
       <c r="E12">
-        <v>1.018926238077988</v>
+        <v>0.8155971373335485</v>
       </c>
       <c r="F12">
-        <v>1.042329696276946</v>
+        <v>0.9255614421311941</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035396879850566</v>
+        <v>1.026517959153679</v>
       </c>
       <c r="J12">
-        <v>1.024671961341926</v>
+        <v>0.8228783589123541</v>
       </c>
       <c r="K12">
-        <v>1.043417578401668</v>
+        <v>0.9917828498471181</v>
       </c>
       <c r="L12">
-        <v>1.022603654999204</v>
+        <v>0.8353782039547047</v>
       </c>
       <c r="M12">
-        <v>1.045918153191685</v>
+        <v>0.9422686484466074</v>
       </c>
       <c r="N12">
-        <v>1.026127113058548</v>
+        <v>0.8240469405674765</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.018052097031043</v>
+        <v>0.7819477271772621</v>
       </c>
       <c r="D13">
-        <v>1.0398782615855</v>
+        <v>0.9768845291297764</v>
       </c>
       <c r="E13">
-        <v>1.019066802180078</v>
+        <v>0.8175897963478254</v>
       </c>
       <c r="F13">
-        <v>1.042423208025924</v>
+        <v>0.9267282465603269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035415852420992</v>
+        <v>1.026848263731898</v>
       </c>
       <c r="J13">
-        <v>1.024812860319516</v>
+        <v>0.8248998104691391</v>
       </c>
       <c r="K13">
-        <v>1.043466230206722</v>
+        <v>0.9924228268583856</v>
       </c>
       <c r="L13">
-        <v>1.022733846720946</v>
+        <v>0.8372449495547336</v>
       </c>
       <c r="M13">
-        <v>1.046001746551081</v>
+        <v>0.9433587486762115</v>
       </c>
       <c r="N13">
-        <v>1.026268212128848</v>
+        <v>0.8260712628173359</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018578259677867</v>
+        <v>0.7894136289563208</v>
       </c>
       <c r="D14">
-        <v>1.040069631439361</v>
+        <v>0.9791078174450836</v>
       </c>
       <c r="E14">
-        <v>1.019526925162714</v>
+        <v>0.8238691293260167</v>
       </c>
       <c r="F14">
-        <v>1.04272929001625</v>
+        <v>0.9304249611574928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035477868482524</v>
+        <v>1.027895333294507</v>
       </c>
       <c r="J14">
-        <v>1.025274051007406</v>
+        <v>0.8312672316695561</v>
       </c>
       <c r="K14">
-        <v>1.043625417596701</v>
+        <v>0.9944522880787067</v>
       </c>
       <c r="L14">
-        <v>1.023159981039895</v>
+        <v>0.8431260742249281</v>
       </c>
       <c r="M14">
-        <v>1.046275318241741</v>
+        <v>0.9468089979923282</v>
       </c>
       <c r="N14">
-        <v>1.026730057760414</v>
+        <v>0.832447726486211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018902065951963</v>
+        <v>0.7938030492298523</v>
       </c>
       <c r="D15">
-        <v>1.040187383459859</v>
+        <v>0.9804293927930012</v>
       </c>
       <c r="E15">
-        <v>1.0198100826768</v>
+        <v>0.8275660505018441</v>
       </c>
       <c r="F15">
-        <v>1.042917636106889</v>
+        <v>0.9326152755117244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035515964806616</v>
+        <v>1.028516088353662</v>
       </c>
       <c r="J15">
-        <v>1.025557843799298</v>
+        <v>0.835014167038819</v>
       </c>
       <c r="K15">
-        <v>1.04372332730803</v>
+        <v>0.9956560262137591</v>
       </c>
       <c r="L15">
-        <v>1.023422194798715</v>
+        <v>0.8465875312797052</v>
       </c>
       <c r="M15">
-        <v>1.046443624470272</v>
+        <v>0.9488508503086275</v>
       </c>
       <c r="N15">
-        <v>1.027014253570622</v>
+        <v>0.8361999829334779</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020781039540906</v>
+        <v>0.8168454990464784</v>
       </c>
       <c r="D16">
-        <v>1.040870368850718</v>
+        <v>0.9875377973511764</v>
       </c>
       <c r="E16">
-        <v>1.021453069271949</v>
+        <v>0.8470314297143372</v>
       </c>
       <c r="F16">
-        <v>1.044010246448041</v>
+        <v>0.9443119103645408</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035735972422657</v>
+        <v>1.031833766342539</v>
       </c>
       <c r="J16">
-        <v>1.027204184935854</v>
+        <v>0.8547210548730602</v>
       </c>
       <c r="K16">
-        <v>1.04429061314322</v>
+        <v>1.002098414721641</v>
       </c>
       <c r="L16">
-        <v>1.024943242443585</v>
+        <v>0.8648002876107665</v>
       </c>
       <c r="M16">
-        <v>1.047419452170451</v>
+        <v>0.9597252025387284</v>
       </c>
       <c r="N16">
-        <v>1.02866293270043</v>
+        <v>0.8559348568088553</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021954720744578</v>
+        <v>0.8296131496810439</v>
       </c>
       <c r="D17">
-        <v>1.041296709677662</v>
+        <v>0.9915959284368548</v>
       </c>
       <c r="E17">
-        <v>1.022479243938723</v>
+        <v>0.8578560556760543</v>
       </c>
       <c r="F17">
-        <v>1.04469244046172</v>
+        <v>0.9509306241052317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035872463187214</v>
+        <v>1.033711521705776</v>
       </c>
       <c r="J17">
-        <v>1.028232163363054</v>
+        <v>0.8656645827650189</v>
       </c>
       <c r="K17">
-        <v>1.044644194192983</v>
+        <v>1.005752933707822</v>
       </c>
       <c r="L17">
-        <v>1.025892891602855</v>
+        <v>0.8749186179286708</v>
       </c>
       <c r="M17">
-        <v>1.048028264740643</v>
+        <v>0.9658574303863738</v>
       </c>
       <c r="N17">
-        <v>1.029692370974907</v>
+        <v>0.8668939257656607</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022637559705874</v>
+        <v>0.8365956368635894</v>
       </c>
       <c r="D18">
-        <v>1.041544646166331</v>
+        <v>0.9938499172033022</v>
       </c>
       <c r="E18">
-        <v>1.023076228151638</v>
+        <v>0.8637867375435784</v>
       </c>
       <c r="F18">
-        <v>1.045089224934647</v>
+        <v>0.9545899294541389</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035951533764591</v>
+        <v>1.034749232996764</v>
       </c>
       <c r="J18">
-        <v>1.028830092056421</v>
+        <v>0.8716558480632236</v>
       </c>
       <c r="K18">
-        <v>1.044849624387153</v>
+        <v>1.007775660290083</v>
       </c>
       <c r="L18">
-        <v>1.026445225238629</v>
+        <v>0.8804592316834118</v>
       </c>
       <c r="M18">
-        <v>1.048382200694175</v>
+        <v>0.9692414091446767</v>
       </c>
       <c r="N18">
-        <v>1.030291148795602</v>
+        <v>0.8728936993477965</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02287009660727</v>
+        <v>0.8389073837749892</v>
       </c>
       <c r="D19">
-        <v>1.041629061171077</v>
+        <v>0.9946014442789712</v>
       </c>
       <c r="E19">
-        <v>1.023279521452811</v>
+        <v>0.8657518669113093</v>
       </c>
       <c r="F19">
-        <v>1.045224328321619</v>
+        <v>0.9558074565058897</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035978403153523</v>
+        <v>1.035094381035759</v>
       </c>
       <c r="J19">
-        <v>1.02903368920752</v>
+        <v>0.8736403443999489</v>
       </c>
       <c r="K19">
-        <v>1.044919534498612</v>
+        <v>1.008448971361211</v>
       </c>
       <c r="L19">
-        <v>1.026633291247787</v>
+        <v>0.8822946139197205</v>
       </c>
       <c r="M19">
-        <v>1.048502685915828</v>
+        <v>0.9703663379919493</v>
       </c>
       <c r="N19">
-        <v>1.030495035078008</v>
+        <v>0.8748810138969447</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021828977574055</v>
+        <v>0.8282938531662692</v>
       </c>
       <c r="D20">
-        <v>1.041251044153745</v>
+        <v>0.9911727725424846</v>
       </c>
       <c r="E20">
-        <v>1.022369307756046</v>
+        <v>0.856736330415063</v>
       </c>
       <c r="F20">
-        <v>1.044619364489193</v>
+        <v>0.9502423253655776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035857875178264</v>
+        <v>1.033516284576759</v>
       </c>
       <c r="J20">
-        <v>1.028122044800477</v>
+        <v>0.8645330583569689</v>
       </c>
       <c r="K20">
-        <v>1.04460634200285</v>
+        <v>1.005372634529502</v>
       </c>
       <c r="L20">
-        <v>1.02579116735558</v>
+        <v>0.8738722885889074</v>
       </c>
       <c r="M20">
-        <v>1.047963066683151</v>
+        <v>0.9652204168074137</v>
       </c>
       <c r="N20">
-        <v>1.029582096031341</v>
+        <v>0.8657607944631638</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018423397230572</v>
+        <v>0.7872611608696128</v>
       </c>
       <c r="D21">
-        <v>1.040013310594189</v>
+        <v>0.978463640078158</v>
       </c>
       <c r="E21">
-        <v>1.019391501295162</v>
+        <v>0.8220576178039768</v>
       </c>
       <c r="F21">
-        <v>1.042639206818546</v>
+        <v>0.9293554349779523</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035459630029366</v>
+        <v>1.027592312277465</v>
       </c>
       <c r="J21">
-        <v>1.02513831743305</v>
+        <v>0.8294307160527659</v>
       </c>
       <c r="K21">
-        <v>1.043578576523214</v>
+        <v>0.9938648443191044</v>
       </c>
       <c r="L21">
-        <v>1.023034566440561</v>
+        <v>0.8414296641359187</v>
       </c>
       <c r="M21">
-        <v>1.046194810428359</v>
+        <v>0.9458113124616789</v>
       </c>
       <c r="N21">
-        <v>1.026594131428814</v>
+        <v>0.8306086028065938</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.016265673174338</v>
+        <v>0.7523823252794005</v>
       </c>
       <c r="D22">
-        <v>1.039228252028236</v>
+        <v>0.9683929101670408</v>
       </c>
       <c r="E22">
-        <v>1.017504490037623</v>
+        <v>0.7928397403669674</v>
       </c>
       <c r="F22">
-        <v>1.041383713607479</v>
+        <v>0.9124585754166483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035204276848704</v>
+        <v>1.022816895372219</v>
       </c>
       <c r="J22">
-        <v>1.023246599647251</v>
+        <v>0.799762045661323</v>
       </c>
       <c r="K22">
-        <v>1.042924937413424</v>
+        <v>0.9846176348187938</v>
       </c>
       <c r="L22">
-        <v>1.021286535467739</v>
+        <v>0.8140435843352204</v>
       </c>
       <c r="M22">
-        <v>1.045072144926918</v>
+        <v>0.9299894683697919</v>
       </c>
       <c r="N22">
-        <v>1.024699727186776</v>
+        <v>0.8008977995001509</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01741112406549</v>
+        <v>0.7721990683330141</v>
       </c>
       <c r="D23">
-        <v>1.039645083852718</v>
+        <v>0.9740287496728005</v>
       </c>
       <c r="E23">
-        <v>1.01850625958157</v>
+        <v>0.8094077012805184</v>
       </c>
       <c r="F23">
-        <v>1.042050284851037</v>
+        <v>0.9219568738337672</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035340118378173</v>
+        <v>1.02549821144854</v>
       </c>
       <c r="J23">
-        <v>1.024250958171845</v>
+        <v>0.8165968574755532</v>
       </c>
       <c r="K23">
-        <v>1.043272157501828</v>
+        <v>0.9898076659467285</v>
       </c>
       <c r="L23">
-        <v>1.022214636944858</v>
+        <v>0.8295784919354741</v>
       </c>
       <c r="M23">
-        <v>1.045668339183625</v>
+        <v>0.9388976678796785</v>
       </c>
       <c r="N23">
-        <v>1.025705512015676</v>
+        <v>0.8177565186781374</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021885800899967</v>
+        <v>0.828891390132955</v>
       </c>
       <c r="D24">
-        <v>1.041271680726666</v>
+        <v>0.9913643207354965</v>
       </c>
       <c r="E24">
-        <v>1.022418988018976</v>
+        <v>0.8572434438295126</v>
       </c>
       <c r="F24">
-        <v>1.044652387858065</v>
+        <v>0.9505539469259976</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035864468546404</v>
+        <v>1.033604678125181</v>
       </c>
       <c r="J24">
-        <v>1.028171807805461</v>
+        <v>0.8650455297325231</v>
       </c>
       <c r="K24">
-        <v>1.044623448272777</v>
+        <v>1.005544804983174</v>
       </c>
       <c r="L24">
-        <v>1.025837137043552</v>
+        <v>0.8743461713824583</v>
       </c>
       <c r="M24">
-        <v>1.047992530504655</v>
+        <v>0.9655088392369551</v>
       </c>
       <c r="N24">
-        <v>1.029631929705499</v>
+        <v>0.8662739936068524</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027010142794284</v>
+        <v>0.8756537031761152</v>
       </c>
       <c r="D25">
-        <v>1.043130273366778</v>
+        <v>1.006882880529732</v>
       </c>
       <c r="E25">
-        <v>1.026898362100104</v>
+        <v>0.8970866068565017</v>
       </c>
       <c r="F25">
-        <v>1.047627901722717</v>
+        <v>0.9755394450259054</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03645171530541</v>
+        <v>1.0406717922405</v>
       </c>
       <c r="J25">
-        <v>1.032656390930536</v>
+        <v>0.9052363662462317</v>
       </c>
       <c r="K25">
-        <v>1.046159942489949</v>
+        <v>1.019375280071324</v>
       </c>
       <c r="L25">
-        <v>1.029979132024453</v>
+        <v>0.9115244790144322</v>
       </c>
       <c r="M25">
-        <v>1.050643717407844</v>
+        <v>0.9885297314770196</v>
       </c>
       <c r="N25">
-        <v>1.034122881453</v>
+        <v>0.9065219057183637</v>
       </c>
     </row>
   </sheetData>
